--- a/biology/Histoire de la zoologie et de la botanique/Gaspard_Michaud/Gaspard_Michaud.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaspard_Michaud/Gaspard_Michaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaspard Michaud, né André-Louis-Gaspard Michaud à Sornac (Corrèze) le 3 décembre 1795 et mort à Lyon le 4 avril 1880, est un malacologiste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaspard Michaud est le fils d'un professeur du lycée d'Ussel (Corrèze), André Louis Michaud, dont la mort en 1813, modifia brusquement les projets du jeune homme qui venait pourtant d'être brillamment admis à l'École normale. Il s'engage alors dans l'Infanterie, soucieux d'embrasser une carrière rapide.
 En 1814, il prend part activement aux combats et participe au blocus de Metz où il sera blessé. Il est promu sergent-major, le 26 mai, avant d'être emprisonné quelques jours en région parisienne.
@@ -546,7 +560,9 @@
           <t>La malacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1827, Michaud fait la connaissance de Jean Pierre Sylvestre Grateloup (1782-1861), de Montpellier. Ce dernier lui suggère d'établir un complément à l'œuvre de Jacques Philippe Raymond  Draparnaud (1772-1804) à partir des coquilles qu'il a rapportées de ses différents voyages. Ce que fait Michaud en 1831, grâce aux données de Grateloup, mais aussi d'autres malacologistes comme Ange Paulin Terver (1798-1875) et Antoine Casimir Marguerite Eugène Foudras (1783-1859).
 Sa publication, bien plus qu'un simple complément est une œuvre remarquable et rigoureuse. Les trois belles lithographies qui ornent l'ouvrage ont été gravées par son ami Terver. Il est, comme Draparnaud, en relation avec Claude Sionnest (1749-1820) de Lyon.
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1829 : « Description de plusieurs espèces nouvelles de coquilles vivantes », Bulletin de la Société linnéenne de Bordeaux, 3 (18) : 260-276
 1831 : Complément à l'Histoire naturelle des Mollusques terrestres et fluviatiles de la France, de J.P.R. Draparnaud, Paris, Strasbourg, Lyon et Verdun-Meuse, 116 p., 3 pl.
